--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav\PycharmProjects\EcommFramework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEE08F5-0DC5-4569-B326-5619A54D5A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E17E68-57D6-45A2-9364-167C4441E01C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7453" yWindow="645" windowWidth="14262" windowHeight="10933" xr2:uid="{C7E51F23-492A-4DA8-BA4B-9F1D911894CD}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{C7E51F23-492A-4DA8-BA4B-9F1D911894CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
